--- a/dados.xlsx
+++ b/dados.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>grupo</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>black_metal.jpg</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>bronze.jpg</t>
   </si>
   <si>
     <t>Puxador Tipo 1</t>
@@ -385,7 +391,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -393,16 +399,12 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -411,24 +413,41 @@
         <v>15</v>
       </c>
       <c r="D6" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
         <v>25.0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>2.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
         <v>35.0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
   <si>
     <t>grupo</t>
   </si>
@@ -31,12 +31,30 @@
     <t>tipo_base</t>
   </si>
   <si>
+    <t>nome_objeto</t>
+  </si>
+  <si>
     <t>Azul Petróleo</t>
   </si>
   <si>
     <t>azul_petroleo.jpg</t>
   </si>
   <si>
+    <t>gavetas_fechadas</t>
+  </si>
+  <si>
+    <t>gavetas_abertas</t>
+  </si>
+  <si>
+    <t>frente_aberta</t>
+  </si>
+  <si>
+    <t>frente_fechada</t>
+  </si>
+  <si>
+    <t>estrutura</t>
+  </si>
+  <si>
     <t>Cipres</t>
   </si>
   <si>
@@ -49,6 +67,18 @@
     <t>black_metal.jpg</t>
   </si>
   <si>
+    <t>puxadores1_fechados</t>
+  </si>
+  <si>
+    <t>puxadores1_abertos</t>
+  </si>
+  <si>
+    <t>puxadores2_fechados</t>
+  </si>
+  <si>
+    <t>puxadores2_abertos</t>
+  </si>
+  <si>
     <t>Bronze</t>
   </si>
   <si>
@@ -74,6 +104,30 @@
   </si>
   <si>
     <t>sim</t>
+  </si>
+  <si>
+    <t>aberto</t>
+  </si>
+  <si>
+    <t>Aberto</t>
+  </si>
+  <si>
+    <t>corredicas_abertas</t>
+  </si>
+  <si>
+    <t>fechado</t>
+  </si>
+  <si>
+    <t>Fechado</t>
+  </si>
+  <si>
+    <t>corredicas_fechadas</t>
+  </si>
+  <si>
+    <t>corredicas</t>
+  </si>
+  <si>
+    <t>metal_polido.jpg</t>
   </si>
 </sst>
 </file>
@@ -326,9 +380,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="13.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -349,105 +409,479 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>45.0</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1">
-        <v>30.0</v>
+        <v>45.0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.0</v>
+        <v>45.0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
         <v>4.0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
         <v>25.0</v>
       </c>
-      <c r="E7" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="E22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1">
         <v>35.0</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
   <si>
     <t>grupo</t>
   </si>
@@ -34,6 +34,9 @@
     <t>nome_objeto</t>
   </si>
   <si>
+    <t>exibir_ao_iniciar</t>
+  </si>
+  <si>
     <t>Azul Petróleo</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>gavetas_fechadas</t>
   </si>
   <si>
+    <t>sim</t>
+  </si>
+  <si>
     <t>gavetas_abertas</t>
   </si>
   <si>
@@ -101,9 +107,6 @@
   </si>
   <si>
     <t>Base Inferior</t>
-  </si>
-  <si>
-    <t>sim</t>
   </si>
   <si>
     <t>aberto</t>
@@ -412,22 +415,28 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>45.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -435,16 +444,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>45.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -452,16 +461,16 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>45.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -469,16 +478,19 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>45.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -486,16 +498,19 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>45.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -503,16 +518,16 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>30.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -520,16 +535,16 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>30.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -537,16 +552,16 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>30.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -554,16 +569,16 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>30.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -571,16 +586,16 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>30.0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +603,16 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -602,15 +620,15 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -618,15 +636,15 @@
         <v>2.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -634,15 +652,15 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -650,15 +668,15 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -666,15 +684,15 @@
         <v>2.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -682,15 +700,15 @@
         <v>2.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -698,15 +716,15 @@
         <v>2.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -714,10 +732,10 @@
         <v>3.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
         <v>20.0</v>
@@ -726,7 +744,10 @@
         <v>1.0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -734,10 +755,10 @@
         <v>3.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1">
         <v>20.0</v>
@@ -746,7 +767,7 @@
         <v>1.0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -754,10 +775,10 @@
         <v>4.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1">
         <v>25.0</v>
@@ -766,7 +787,7 @@
         <v>2.0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -774,10 +795,10 @@
         <v>4.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1">
         <v>25.0</v>
@@ -787,101 +808,116 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1">
         <v>35.0</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>28</v>
+      <c r="H24" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>37</v>
+      <c r="H31" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -772,7 +772,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>28</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>28</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
   <si>
     <t>grupo</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>exibir_ao_iniciar</t>
+  </si>
+  <si>
+    <t>exibir_como_botao</t>
   </si>
   <si>
     <t>Azul Petróleo</t>
@@ -391,6 +394,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="13.75"/>
+    <col customWidth="1" min="7" max="7" width="17.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -418,25 +422,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>45.0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -444,16 +454,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>45.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -461,16 +471,16 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>45.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -478,19 +488,19 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>45.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -498,19 +508,19 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>45.0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -518,16 +528,19 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>30.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -535,16 +548,16 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>30.0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -552,16 +565,16 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>30.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -569,16 +582,16 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>30.0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -586,16 +599,16 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>30.0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -603,16 +616,19 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -620,15 +636,15 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -636,15 +652,15 @@
         <v>2.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -652,15 +668,15 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -668,15 +684,18 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -684,15 +703,15 @@
         <v>2.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -700,15 +719,15 @@
         <v>2.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -716,15 +735,15 @@
         <v>2.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -732,10 +751,10 @@
         <v>3.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1">
         <v>20.0</v>
@@ -744,10 +763,13 @@
         <v>1.0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -755,10 +777,10 @@
         <v>3.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>20.0</v>
@@ -767,7 +789,7 @@
         <v>1.0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -775,10 +797,10 @@
         <v>3.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1">
         <v>25.0</v>
@@ -787,7 +809,10 @@
         <v>2.0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -795,10 +820,10 @@
         <v>3.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
         <v>25.0</v>
@@ -808,116 +833,116 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1">
         <v>35.0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
